--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lottery\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6338E6-3D56-48EA-B2E9-D85C2B168EBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4E2A49-4891-4766-9C49-49BA00D61DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>工号</t>
   </si>
@@ -31,110 +31,277 @@
     <t>部门</t>
   </si>
   <si>
-    <t>annionhe(annionhe)</t>
-  </si>
-  <si>
-    <t>alexbenyan(焉博)</t>
-  </si>
-  <si>
-    <t>santihong(洪耀停)</t>
-  </si>
-  <si>
-    <t>boringzheng(郑博元)</t>
-  </si>
-  <si>
-    <t>michaelsqu(曲嵩)</t>
-  </si>
-  <si>
-    <t>xiaoxiaopi(皮凌霄)</t>
-  </si>
-  <si>
-    <t>fordringhan(韩禹)</t>
-  </si>
-  <si>
-    <t>evannama(马怡虹)</t>
-  </si>
-  <si>
-    <t>cyruslili(黎甫阳)</t>
-  </si>
-  <si>
-    <t>shiboshen(沈士博)</t>
-  </si>
-  <si>
-    <t>fivalqqiu(邱克强)</t>
-  </si>
-  <si>
-    <t>jieruiyu(于瑞杰)</t>
-  </si>
-  <si>
-    <t>haoyufu(付昊宇)</t>
-  </si>
-  <si>
-    <t>zhoubaoqian(钱周宝)</t>
-  </si>
-  <si>
-    <t>timolv(吕至慧)</t>
-  </si>
-  <si>
-    <t>devinzli(李钊)</t>
-  </si>
-  <si>
-    <t>gradinliu(刘国兴)</t>
-  </si>
-  <si>
-    <t>yicongpeng(彭奕聪)</t>
-  </si>
-  <si>
-    <t>danielcheng(程天成)</t>
-  </si>
-  <si>
-    <t>renogao(renogao)</t>
-  </si>
-  <si>
-    <t>johnyou(尤军)</t>
-  </si>
-  <si>
-    <t>yukinoliang(梁泽)</t>
-  </si>
-  <si>
-    <t>esczhang(张健)</t>
-  </si>
-  <si>
-    <t>jaeezhou(周者)</t>
-  </si>
-  <si>
-    <t>dougzhang(张顺发)</t>
-  </si>
-  <si>
-    <t>xaelpeng(彭鑫)</t>
-  </si>
-  <si>
-    <t>spaceyxu(许潇珑)</t>
-  </si>
-  <si>
-    <t>zaleggzhao(赵磊)</t>
-  </si>
-  <si>
-    <t>katinwang(汪磊)</t>
-  </si>
-  <si>
-    <t>xingduanlin(林型端)</t>
-  </si>
-  <si>
-    <t>sherryqli(sherryqli)</t>
-  </si>
-  <si>
-    <t>ryanytwang(王鋆涛)</t>
-  </si>
-  <si>
-    <t>lokihan(lokihan)</t>
+    <t>annionhe</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>timolv</t>
+  </si>
+  <si>
+    <t>dougzhang</t>
+  </si>
+  <si>
+    <t>alexbenyan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>santihong</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boringzheng</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>michaelsqu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaopi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fordringhan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>evannama</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyruslili</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiboshen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fivalqqiu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jieruiyu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>haoyufu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhoubaoqian</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>devinzli</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gradinliu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yicongpeng</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>renogao</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>danielcheng</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>johnyou</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>yukinoliang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>esczhang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jaeezhou</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xaelpeng</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaceyxu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zaleggzhao</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>katinwang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>xingduanlin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sherryqli</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryanytwang</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lokihan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>焉博</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪耀停</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑博元</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲嵩</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮凌霄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩禹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>马怡虹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎甫阳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈士博</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱克强</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>于瑞杰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>付昊宇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱周宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕至慧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李钊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘国兴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭奕聪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程天成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤军</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁泽</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张健</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭鑫</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>许潇珑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵磊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪磊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林型端</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王鋆涛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRBP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +340,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,6 +418,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,7 +703,7 @@
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="16.5"/>
@@ -544,235 +723,367 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>62</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="B31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
+      <c r="A33" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="B34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2"/>
